--- a/Datasets/Annotated/Annotated_Uber_Ride_Reviews.xlsx
+++ b/Datasets/Annotated/Annotated_Uber_Ride_Reviews.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Raw\Excel file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Annotated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEF0DF6-2CE2-4451-B1F7-0A0FFE48CE77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA8ABF-05F4-422F-A88A-337ED836390D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1344">
   <si>
     <t>Polarity</t>
   </si>
@@ -4044,6 +4054,15 @@
   </si>
   <si>
     <t>uber kind like magic you punch buttons app phone watch black car appears nowhere doorstep it much better calling taxi ridiculous it come price though black car service i found taxi uber taxi service maybe but honestly kind worth it painless every service like</t>
+  </si>
+  <si>
+    <t>Snippet</t>
+  </si>
+  <si>
+    <t>Annotation Code</t>
+  </si>
+  <si>
+    <t>1x</t>
   </si>
 </sst>
 </file>
@@ -4445,439 +4464,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B937"/>
+  <dimension ref="A1:H937"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C2:C1001,0)</f>
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C1001,1)</f>
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF(C2:C1001,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF(C2:C1001,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-1</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-1</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-1</v>
       </c>
@@ -4885,31 +5094,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-1</v>
       </c>
@@ -4917,23 +5135,29 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-1</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1</v>
       </c>
@@ -4941,103 +5165,139 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1</v>
       </c>
@@ -5045,31 +5305,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-1</v>
       </c>
@@ -5077,215 +5346,293 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-1</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-1</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-1</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>-1</v>
       </c>
@@ -5293,119 +5640,161 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>-1</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
       <c r="B117" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>-1</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>-1</v>
       </c>
@@ -5413,87 +5802,117 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>-1</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
       <c r="B129" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
       <c r="B130" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -5501,63 +5920,84 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>-1</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>-1</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>-1</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>-1</v>
       </c>
@@ -5565,7 +6005,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>-1</v>
       </c>
@@ -5573,7 +6013,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5581,15 +6021,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>-1</v>
       </c>
@@ -5597,39 +6040,51 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>-1</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>-1</v>
       </c>
@@ -5637,7 +6092,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -5645,15 +6100,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5661,7 +6119,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5669,7 +6127,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5677,15 +6135,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5693,7 +6154,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5701,7 +6162,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5709,7 +6170,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5717,7 +6178,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5725,7 +6186,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -11956,276 +12417,348 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF905D-F542-4102-B1BF-076135E404E5}">
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:D406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>-1</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="B17" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>-1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1</v>
+      </c>
+      <c r="B18" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>-1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>-1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>-1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>-1</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>-1</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>-1</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>-1</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1</v>
+      </c>
+      <c r="B30" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>-1</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="B31" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>-1</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1</v>
+      </c>
+      <c r="B32" t="s">
         <v>966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -12233,7 +12766,7 @@
         <v>-1</v>
       </c>
       <c r="B34" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -12241,7 +12774,7 @@
         <v>-1</v>
       </c>
       <c r="B35" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -12249,23 +12782,23 @@
         <v>-1</v>
       </c>
       <c r="B36" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B37" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -12273,7 +12806,7 @@
         <v>-1</v>
       </c>
       <c r="B39" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -12281,7 +12814,7 @@
         <v>-1</v>
       </c>
       <c r="B40" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -12289,7 +12822,7 @@
         <v>-1</v>
       </c>
       <c r="B41" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -12297,7 +12830,7 @@
         <v>-1</v>
       </c>
       <c r="B42" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -12305,7 +12838,7 @@
         <v>-1</v>
       </c>
       <c r="B43" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -12313,7 +12846,7 @@
         <v>-1</v>
       </c>
       <c r="B44" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -12321,7 +12854,7 @@
         <v>-1</v>
       </c>
       <c r="B45" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -12329,7 +12862,7 @@
         <v>-1</v>
       </c>
       <c r="B46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -12337,7 +12870,7 @@
         <v>-1</v>
       </c>
       <c r="B47" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -12345,7 +12878,7 @@
         <v>-1</v>
       </c>
       <c r="B48" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -12353,7 +12886,7 @@
         <v>-1</v>
       </c>
       <c r="B49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -12361,7 +12894,7 @@
         <v>-1</v>
       </c>
       <c r="B50" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -12369,7 +12902,7 @@
         <v>-1</v>
       </c>
       <c r="B51" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -12377,7 +12910,7 @@
         <v>-1</v>
       </c>
       <c r="B52" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -12385,7 +12918,7 @@
         <v>-1</v>
       </c>
       <c r="B53" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -12393,23 +12926,23 @@
         <v>-1</v>
       </c>
       <c r="B54" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B55" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -12417,23 +12950,23 @@
         <v>-1</v>
       </c>
       <c r="B57" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B58" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -12441,7 +12974,7 @@
         <v>-1</v>
       </c>
       <c r="B60" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -12449,7 +12982,7 @@
         <v>-1</v>
       </c>
       <c r="B61" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -12457,39 +12990,39 @@
         <v>-1</v>
       </c>
       <c r="B62" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B63" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B65" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -12497,7 +13030,7 @@
         <v>-1</v>
       </c>
       <c r="B67" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -12505,7 +13038,7 @@
         <v>-1</v>
       </c>
       <c r="B68" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -12513,7 +13046,7 @@
         <v>-1</v>
       </c>
       <c r="B69" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -12521,7 +13054,7 @@
         <v>-1</v>
       </c>
       <c r="B70" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -12529,23 +13062,23 @@
         <v>-1</v>
       </c>
       <c r="B71" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B72" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -12553,23 +13086,23 @@
         <v>-1</v>
       </c>
       <c r="B74" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B75" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -12577,7 +13110,7 @@
         <v>-1</v>
       </c>
       <c r="B77" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -12585,7 +13118,7 @@
         <v>-1</v>
       </c>
       <c r="B78" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -12593,7 +13126,7 @@
         <v>-1</v>
       </c>
       <c r="B79" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -12601,7 +13134,7 @@
         <v>-1</v>
       </c>
       <c r="B80" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -12609,7 +13142,7 @@
         <v>-1</v>
       </c>
       <c r="B81" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -12617,7 +13150,7 @@
         <v>-1</v>
       </c>
       <c r="B82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -12625,39 +13158,39 @@
         <v>-1</v>
       </c>
       <c r="B83" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B84" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B86" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -12665,39 +13198,39 @@
         <v>-1</v>
       </c>
       <c r="B88" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B89" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B91" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -12705,7 +13238,7 @@
         <v>-1</v>
       </c>
       <c r="B93" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -12713,23 +13246,23 @@
         <v>-1</v>
       </c>
       <c r="B94" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B95" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -12737,7 +13270,7 @@
         <v>-1</v>
       </c>
       <c r="B97" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -12745,7 +13278,7 @@
         <v>-1</v>
       </c>
       <c r="B98" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -12753,7 +13286,7 @@
         <v>-1</v>
       </c>
       <c r="B99" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -12761,7 +13294,7 @@
         <v>-1</v>
       </c>
       <c r="B100" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -12769,7 +13302,7 @@
         <v>-1</v>
       </c>
       <c r="B101" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -12777,23 +13310,23 @@
         <v>-1</v>
       </c>
       <c r="B102" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B103" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -12801,7 +13334,7 @@
         <v>-1</v>
       </c>
       <c r="B105" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -12809,7 +13342,7 @@
         <v>-1</v>
       </c>
       <c r="B106" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -12817,7 +13350,7 @@
         <v>-1</v>
       </c>
       <c r="B107" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -12825,7 +13358,7 @@
         <v>-1</v>
       </c>
       <c r="B108" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -12833,7 +13366,7 @@
         <v>-1</v>
       </c>
       <c r="B109" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -12841,7 +13374,7 @@
         <v>-1</v>
       </c>
       <c r="B110" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -12849,7 +13382,7 @@
         <v>-1</v>
       </c>
       <c r="B111" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -12857,7 +13390,7 @@
         <v>-1</v>
       </c>
       <c r="B112" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -12865,7 +13398,7 @@
         <v>-1</v>
       </c>
       <c r="B113" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -12873,23 +13406,23 @@
         <v>-1</v>
       </c>
       <c r="B114" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B115" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -12897,7 +13430,7 @@
         <v>-1</v>
       </c>
       <c r="B117" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -12905,7 +13438,7 @@
         <v>-1</v>
       </c>
       <c r="B118" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -12913,7 +13446,7 @@
         <v>-1</v>
       </c>
       <c r="B119" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -12921,7 +13454,7 @@
         <v>-1</v>
       </c>
       <c r="B120" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -12929,7 +13462,7 @@
         <v>-1</v>
       </c>
       <c r="B121" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -12937,7 +13470,7 @@
         <v>-1</v>
       </c>
       <c r="B122" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -12945,7 +13478,7 @@
         <v>-1</v>
       </c>
       <c r="B123" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -12953,23 +13486,23 @@
         <v>-1</v>
       </c>
       <c r="B124" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B125" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -12977,7 +13510,7 @@
         <v>-1</v>
       </c>
       <c r="B127" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -12985,7 +13518,7 @@
         <v>-1</v>
       </c>
       <c r="B128" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -12993,7 +13526,7 @@
         <v>-1</v>
       </c>
       <c r="B129" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -13001,7 +13534,7 @@
         <v>-1</v>
       </c>
       <c r="B130" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -13009,7 +13542,7 @@
         <v>-1</v>
       </c>
       <c r="B131" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -13017,7 +13550,7 @@
         <v>-1</v>
       </c>
       <c r="B132" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -13025,7 +13558,7 @@
         <v>-1</v>
       </c>
       <c r="B133" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -13033,7 +13566,7 @@
         <v>-1</v>
       </c>
       <c r="B134" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -13041,23 +13574,23 @@
         <v>-1</v>
       </c>
       <c r="B135" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B136" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -13065,7 +13598,7 @@
         <v>-1</v>
       </c>
       <c r="B138" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -13073,7 +13606,7 @@
         <v>-1</v>
       </c>
       <c r="B139" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -13081,7 +13614,7 @@
         <v>-1</v>
       </c>
       <c r="B140" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -13089,7 +13622,7 @@
         <v>-1</v>
       </c>
       <c r="B141" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -13097,7 +13630,7 @@
         <v>-1</v>
       </c>
       <c r="B142" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -13105,7 +13638,7 @@
         <v>-1</v>
       </c>
       <c r="B143" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -13113,7 +13646,7 @@
         <v>-1</v>
       </c>
       <c r="B144" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -13121,7 +13654,7 @@
         <v>-1</v>
       </c>
       <c r="B145" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -13129,7 +13662,7 @@
         <v>-1</v>
       </c>
       <c r="B146" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -13137,7 +13670,7 @@
         <v>-1</v>
       </c>
       <c r="B147" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -13145,23 +13678,23 @@
         <v>-1</v>
       </c>
       <c r="B148" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B149" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -13169,7 +13702,7 @@
         <v>-1</v>
       </c>
       <c r="B151" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -13177,7 +13710,7 @@
         <v>-1</v>
       </c>
       <c r="B152" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -13185,7 +13718,7 @@
         <v>-1</v>
       </c>
       <c r="B153" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -13193,7 +13726,7 @@
         <v>-1</v>
       </c>
       <c r="B154" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -13201,7 +13734,7 @@
         <v>-1</v>
       </c>
       <c r="B155" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -13209,7 +13742,7 @@
         <v>-1</v>
       </c>
       <c r="B156" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -13217,23 +13750,23 @@
         <v>-1</v>
       </c>
       <c r="B157" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B158" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -13241,7 +13774,7 @@
         <v>-1</v>
       </c>
       <c r="B160" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -13249,7 +13782,7 @@
         <v>-1</v>
       </c>
       <c r="B161" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -13257,7 +13790,7 @@
         <v>-1</v>
       </c>
       <c r="B162" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -13265,7 +13798,7 @@
         <v>-1</v>
       </c>
       <c r="B163" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -13273,7 +13806,7 @@
         <v>-1</v>
       </c>
       <c r="B164" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -13281,7 +13814,7 @@
         <v>-1</v>
       </c>
       <c r="B165" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -13289,7 +13822,7 @@
         <v>-1</v>
       </c>
       <c r="B166" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -13297,15 +13830,15 @@
         <v>-1</v>
       </c>
       <c r="B167" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B168" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -13313,15 +13846,15 @@
         <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -13329,7 +13862,7 @@
         <v>-1</v>
       </c>
       <c r="B171" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -13337,7 +13870,7 @@
         <v>-1</v>
       </c>
       <c r="B172" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -13345,7 +13878,7 @@
         <v>-1</v>
       </c>
       <c r="B173" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -13353,7 +13886,7 @@
         <v>-1</v>
       </c>
       <c r="B174" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -13361,7 +13894,7 @@
         <v>-1</v>
       </c>
       <c r="B175" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -13369,23 +13902,23 @@
         <v>-1</v>
       </c>
       <c r="B176" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B177" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -13393,7 +13926,7 @@
         <v>-1</v>
       </c>
       <c r="B179" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -13401,7 +13934,7 @@
         <v>-1</v>
       </c>
       <c r="B180" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -13409,7 +13942,7 @@
         <v>-1</v>
       </c>
       <c r="B181" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -13417,7 +13950,7 @@
         <v>-1</v>
       </c>
       <c r="B182" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -13425,7 +13958,7 @@
         <v>-1</v>
       </c>
       <c r="B183" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -13433,23 +13966,23 @@
         <v>-1</v>
       </c>
       <c r="B184" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B185" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -13457,23 +13990,23 @@
         <v>-1</v>
       </c>
       <c r="B187" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B188" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -13481,7 +14014,7 @@
         <v>-1</v>
       </c>
       <c r="B190" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -13489,23 +14022,23 @@
         <v>-1</v>
       </c>
       <c r="B191" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B192" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -13513,15 +14046,15 @@
         <v>-1</v>
       </c>
       <c r="B194" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B195" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -13529,15 +14062,15 @@
         <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -13545,15 +14078,15 @@
         <v>-1</v>
       </c>
       <c r="B198" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B199" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -13561,15 +14094,15 @@
         <v>1</v>
       </c>
       <c r="B200" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -13577,15 +14110,15 @@
         <v>-1</v>
       </c>
       <c r="B202" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B203" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -13593,15 +14126,15 @@
         <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B205" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -13609,7 +14142,7 @@
         <v>-1</v>
       </c>
       <c r="B206" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -13617,7 +14150,7 @@
         <v>-1</v>
       </c>
       <c r="B207" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -13625,23 +14158,23 @@
         <v>-1</v>
       </c>
       <c r="B208" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B209" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B210" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -13649,7 +14182,7 @@
         <v>-1</v>
       </c>
       <c r="B211" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -13657,7 +14190,7 @@
         <v>-1</v>
       </c>
       <c r="B212" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -13665,7 +14198,7 @@
         <v>-1</v>
       </c>
       <c r="B213" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -13673,7 +14206,7 @@
         <v>-1</v>
       </c>
       <c r="B214" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -13681,7 +14214,7 @@
         <v>-1</v>
       </c>
       <c r="B215" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -13689,7 +14222,7 @@
         <v>-1</v>
       </c>
       <c r="B216" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -13697,7 +14230,7 @@
         <v>-1</v>
       </c>
       <c r="B217" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -13705,7 +14238,7 @@
         <v>-1</v>
       </c>
       <c r="B218" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -13713,7 +14246,7 @@
         <v>-1</v>
       </c>
       <c r="B219" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -13721,7 +14254,7 @@
         <v>-1</v>
       </c>
       <c r="B220" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -13729,23 +14262,23 @@
         <v>-1</v>
       </c>
       <c r="B221" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B222" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -13753,7 +14286,7 @@
         <v>-1</v>
       </c>
       <c r="B224" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -13761,7 +14294,7 @@
         <v>-1</v>
       </c>
       <c r="B225" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -13769,23 +14302,23 @@
         <v>-1</v>
       </c>
       <c r="B226" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B227" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -13793,7 +14326,7 @@
         <v>-1</v>
       </c>
       <c r="B229" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -13801,7 +14334,7 @@
         <v>-1</v>
       </c>
       <c r="B230" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -13809,7 +14342,7 @@
         <v>-1</v>
       </c>
       <c r="B231" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -13817,7 +14350,7 @@
         <v>-1</v>
       </c>
       <c r="B232" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -13825,7 +14358,7 @@
         <v>-1</v>
       </c>
       <c r="B233" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -13833,7 +14366,7 @@
         <v>-1</v>
       </c>
       <c r="B234" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -13841,7 +14374,7 @@
         <v>-1</v>
       </c>
       <c r="B235" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -13849,23 +14382,23 @@
         <v>-1</v>
       </c>
       <c r="B236" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B237" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -13873,7 +14406,7 @@
         <v>-1</v>
       </c>
       <c r="B239" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -13881,7 +14414,7 @@
         <v>-1</v>
       </c>
       <c r="B240" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -13889,7 +14422,7 @@
         <v>-1</v>
       </c>
       <c r="B241" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -13897,7 +14430,7 @@
         <v>-1</v>
       </c>
       <c r="B242" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -13905,7 +14438,7 @@
         <v>-1</v>
       </c>
       <c r="B243" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -13913,7 +14446,7 @@
         <v>-1</v>
       </c>
       <c r="B244" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -13921,7 +14454,7 @@
         <v>-1</v>
       </c>
       <c r="B245" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -13929,7 +14462,7 @@
         <v>-1</v>
       </c>
       <c r="B246" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -13937,7 +14470,7 @@
         <v>-1</v>
       </c>
       <c r="B247" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -13945,7 +14478,7 @@
         <v>-1</v>
       </c>
       <c r="B248" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -13953,7 +14486,7 @@
         <v>-1</v>
       </c>
       <c r="B249" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -13961,7 +14494,7 @@
         <v>-1</v>
       </c>
       <c r="B250" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -13969,7 +14502,7 @@
         <v>-1</v>
       </c>
       <c r="B251" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -13977,7 +14510,7 @@
         <v>-1</v>
       </c>
       <c r="B252" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -13985,7 +14518,7 @@
         <v>-1</v>
       </c>
       <c r="B253" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -13993,7 +14526,7 @@
         <v>-1</v>
       </c>
       <c r="B254" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -14001,23 +14534,23 @@
         <v>-1</v>
       </c>
       <c r="B255" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B256" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -14025,7 +14558,7 @@
         <v>-1</v>
       </c>
       <c r="B258" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -14033,7 +14566,7 @@
         <v>-1</v>
       </c>
       <c r="B259" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -14041,7 +14574,7 @@
         <v>-1</v>
       </c>
       <c r="B260" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -14049,7 +14582,7 @@
         <v>-1</v>
       </c>
       <c r="B261" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -14057,23 +14590,23 @@
         <v>-1</v>
       </c>
       <c r="B262" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B263" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -14081,7 +14614,7 @@
         <v>-1</v>
       </c>
       <c r="B265" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -14089,7 +14622,7 @@
         <v>-1</v>
       </c>
       <c r="B266" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -14097,7 +14630,7 @@
         <v>-1</v>
       </c>
       <c r="B267" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -14105,23 +14638,23 @@
         <v>-1</v>
       </c>
       <c r="B268" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B269" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -14129,7 +14662,7 @@
         <v>-1</v>
       </c>
       <c r="B271" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -14137,15 +14670,15 @@
         <v>-1</v>
       </c>
       <c r="B272" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B273" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -14153,15 +14686,15 @@
         <v>1</v>
       </c>
       <c r="B274" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -14169,23 +14702,23 @@
         <v>-1</v>
       </c>
       <c r="B276" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B277" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -14193,7 +14726,7 @@
         <v>-1</v>
       </c>
       <c r="B279" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -14201,7 +14734,7 @@
         <v>-1</v>
       </c>
       <c r="B280" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -14209,23 +14742,23 @@
         <v>-1</v>
       </c>
       <c r="B281" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B282" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B283" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -14233,7 +14766,7 @@
         <v>-1</v>
       </c>
       <c r="B284" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -14241,7 +14774,7 @@
         <v>-1</v>
       </c>
       <c r="B285" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -14249,7 +14782,7 @@
         <v>-1</v>
       </c>
       <c r="B286" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -14257,7 +14790,7 @@
         <v>-1</v>
       </c>
       <c r="B287" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -14265,7 +14798,7 @@
         <v>-1</v>
       </c>
       <c r="B288" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -14273,39 +14806,39 @@
         <v>-1</v>
       </c>
       <c r="B289" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B290" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B292" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -14313,7 +14846,7 @@
         <v>-1</v>
       </c>
       <c r="B294" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -14321,7 +14854,7 @@
         <v>-1</v>
       </c>
       <c r="B295" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -14329,7 +14862,7 @@
         <v>-1</v>
       </c>
       <c r="B296" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -14337,7 +14870,7 @@
         <v>-1</v>
       </c>
       <c r="B297" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -14345,7 +14878,7 @@
         <v>-1</v>
       </c>
       <c r="B298" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -14353,7 +14886,7 @@
         <v>-1</v>
       </c>
       <c r="B299" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -14361,7 +14894,7 @@
         <v>-1</v>
       </c>
       <c r="B300" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -14369,7 +14902,7 @@
         <v>-1</v>
       </c>
       <c r="B301" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -14377,7 +14910,7 @@
         <v>-1</v>
       </c>
       <c r="B302" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -14385,7 +14918,7 @@
         <v>-1</v>
       </c>
       <c r="B303" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -14393,7 +14926,7 @@
         <v>-1</v>
       </c>
       <c r="B304" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -14401,7 +14934,7 @@
         <v>-1</v>
       </c>
       <c r="B305" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -14409,23 +14942,23 @@
         <v>-1</v>
       </c>
       <c r="B306" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B307" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B308" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -14433,15 +14966,15 @@
         <v>-1</v>
       </c>
       <c r="B309" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B310" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -14449,15 +14982,15 @@
         <v>1</v>
       </c>
       <c r="B311" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B312" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -14465,7 +14998,7 @@
         <v>-1</v>
       </c>
       <c r="B313" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -14473,23 +15006,23 @@
         <v>-1</v>
       </c>
       <c r="B314" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B315" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B316" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -14497,7 +15030,7 @@
         <v>-1</v>
       </c>
       <c r="B317" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -14505,7 +15038,7 @@
         <v>-1</v>
       </c>
       <c r="B318" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -14513,7 +15046,7 @@
         <v>-1</v>
       </c>
       <c r="B319" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -14521,7 +15054,7 @@
         <v>-1</v>
       </c>
       <c r="B320" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -14529,7 +15062,7 @@
         <v>-1</v>
       </c>
       <c r="B321" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -14537,7 +15070,7 @@
         <v>-1</v>
       </c>
       <c r="B322" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -14545,7 +15078,7 @@
         <v>-1</v>
       </c>
       <c r="B323" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -14553,7 +15086,7 @@
         <v>-1</v>
       </c>
       <c r="B324" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -14561,7 +15094,7 @@
         <v>-1</v>
       </c>
       <c r="B325" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -14569,7 +15102,7 @@
         <v>-1</v>
       </c>
       <c r="B326" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -14577,7 +15110,7 @@
         <v>-1</v>
       </c>
       <c r="B327" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -14585,23 +15118,23 @@
         <v>-1</v>
       </c>
       <c r="B328" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B329" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -14609,7 +15142,7 @@
         <v>-1</v>
       </c>
       <c r="B331" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -14617,7 +15150,7 @@
         <v>-1</v>
       </c>
       <c r="B332" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -14625,7 +15158,7 @@
         <v>-1</v>
       </c>
       <c r="B333" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -14633,7 +15166,7 @@
         <v>-1</v>
       </c>
       <c r="B334" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -14641,7 +15174,7 @@
         <v>-1</v>
       </c>
       <c r="B335" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -14649,7 +15182,7 @@
         <v>-1</v>
       </c>
       <c r="B336" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -14657,23 +15190,23 @@
         <v>-1</v>
       </c>
       <c r="B337" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B338" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B339" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -14681,7 +15214,7 @@
         <v>-1</v>
       </c>
       <c r="B340" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -14689,7 +15222,7 @@
         <v>-1</v>
       </c>
       <c r="B341" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -14697,7 +15230,7 @@
         <v>-1</v>
       </c>
       <c r="B342" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -14705,7 +15238,7 @@
         <v>-1</v>
       </c>
       <c r="B343" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -14713,7 +15246,7 @@
         <v>-1</v>
       </c>
       <c r="B344" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -14721,7 +15254,7 @@
         <v>-1</v>
       </c>
       <c r="B345" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -14729,7 +15262,7 @@
         <v>-1</v>
       </c>
       <c r="B346" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -14737,7 +15270,7 @@
         <v>-1</v>
       </c>
       <c r="B347" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -14745,7 +15278,7 @@
         <v>-1</v>
       </c>
       <c r="B348" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -14753,7 +15286,7 @@
         <v>-1</v>
       </c>
       <c r="B349" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -14761,7 +15294,7 @@
         <v>-1</v>
       </c>
       <c r="B350" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -14769,7 +15302,7 @@
         <v>-1</v>
       </c>
       <c r="B351" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -14777,7 +15310,7 @@
         <v>-1</v>
       </c>
       <c r="B352" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -14785,7 +15318,7 @@
         <v>-1</v>
       </c>
       <c r="B353" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -14793,7 +15326,7 @@
         <v>-1</v>
       </c>
       <c r="B354" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -14801,7 +15334,7 @@
         <v>-1</v>
       </c>
       <c r="B355" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -14809,7 +15342,7 @@
         <v>-1</v>
       </c>
       <c r="B356" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -14817,7 +15350,7 @@
         <v>-1</v>
       </c>
       <c r="B357" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -14825,7 +15358,7 @@
         <v>-1</v>
       </c>
       <c r="B358" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -14833,7 +15366,7 @@
         <v>-1</v>
       </c>
       <c r="B359" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -14841,7 +15374,7 @@
         <v>-1</v>
       </c>
       <c r="B360" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -14849,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="B361" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -14857,23 +15390,23 @@
         <v>-1</v>
       </c>
       <c r="B362" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B363" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B364" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -14881,7 +15414,7 @@
         <v>-1</v>
       </c>
       <c r="B365" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -14889,7 +15422,7 @@
         <v>-1</v>
       </c>
       <c r="B366" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -14897,7 +15430,7 @@
         <v>-1</v>
       </c>
       <c r="B367" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -14905,7 +15438,7 @@
         <v>-1</v>
       </c>
       <c r="B368" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -14913,7 +15446,7 @@
         <v>-1</v>
       </c>
       <c r="B369" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -14921,23 +15454,23 @@
         <v>-1</v>
       </c>
       <c r="B370" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B371" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B372" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -14945,23 +15478,23 @@
         <v>-1</v>
       </c>
       <c r="B373" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B374" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B375" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -14969,15 +15502,15 @@
         <v>-1</v>
       </c>
       <c r="B376" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B377" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -14985,31 +15518,31 @@
         <v>1</v>
       </c>
       <c r="B378" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B379" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B380" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B381" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -15017,7 +15550,7 @@
         <v>-1</v>
       </c>
       <c r="B382" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -15025,7 +15558,7 @@
         <v>-1</v>
       </c>
       <c r="B383" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -15033,7 +15566,7 @@
         <v>-1</v>
       </c>
       <c r="B384" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -15041,7 +15574,7 @@
         <v>-1</v>
       </c>
       <c r="B385" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -15049,7 +15582,7 @@
         <v>-1</v>
       </c>
       <c r="B386" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -15057,15 +15590,15 @@
         <v>-1</v>
       </c>
       <c r="B387" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B388" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -15073,15 +15606,15 @@
         <v>1</v>
       </c>
       <c r="B389" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B390" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -15089,7 +15622,7 @@
         <v>-1</v>
       </c>
       <c r="B391" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -15097,7 +15630,7 @@
         <v>-1</v>
       </c>
       <c r="B392" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -15105,7 +15638,7 @@
         <v>-1</v>
       </c>
       <c r="B393" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -15113,7 +15646,7 @@
         <v>-1</v>
       </c>
       <c r="B394" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -15121,7 +15654,7 @@
         <v>-1</v>
       </c>
       <c r="B395" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -15129,7 +15662,7 @@
         <v>-1</v>
       </c>
       <c r="B396" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -15137,7 +15670,7 @@
         <v>-1</v>
       </c>
       <c r="B397" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -15145,7 +15678,7 @@
         <v>-1</v>
       </c>
       <c r="B398" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -15153,23 +15686,23 @@
         <v>-1</v>
       </c>
       <c r="B399" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B400" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B401" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -15177,7 +15710,7 @@
         <v>-1</v>
       </c>
       <c r="B402" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -15185,7 +15718,7 @@
         <v>-1</v>
       </c>
       <c r="B403" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -15193,14 +15726,22 @@
         <v>-1</v>
       </c>
       <c r="B404" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B405" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>1</v>
+      </c>
+      <c r="B406" t="s">
         <v>1340</v>
       </c>
     </row>

--- a/Datasets/Annotated/Annotated_Uber_Ride_Reviews.xlsx
+++ b/Datasets/Annotated/Annotated_Uber_Ride_Reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Annotated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA8ABF-05F4-422F-A88A-337ED836390D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC35025-97D1-498C-AE5A-3D6D4A961BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4466,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H937"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
+      <selection activeCell="B801" sqref="B801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,26 +4503,26 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>COUNTIF(C2:C1001,0)</f>
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C1001,1)</f>
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <f>COUNTIF(C2:C1001,2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f>COUNTIF(C2:C1001,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4530,10 +4530,10 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,10 +4541,10 @@
         <v>-1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4552,7 +4552,7 @@
         <v>-1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>-1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>-1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4585,7 +4585,7 @@
         <v>-1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4607,18 +4607,18 @@
         <v>-1</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4629,7 +4629,7 @@
         <v>-1</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4651,10 +4651,10 @@
         <v>-1</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4662,10 +4662,10 @@
         <v>-1</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
         <v>-1</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4684,32 +4684,32 @@
         <v>-1</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4717,10 +4717,10 @@
         <v>-1</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4739,10 +4739,10 @@
         <v>-1</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
         <v>-1</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4769,32 +4769,32 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4805,21 +4805,21 @@
         <v>-1</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4827,7 +4827,7 @@
         <v>-1</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4835,10 +4835,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4846,13 +4846,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4860,10 +4860,10 @@
         <v>-1</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4871,29 +4871,29 @@
         <v>-1</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4912,13 +4912,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4934,21 +4934,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4967,10 +4967,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -4978,10 +4978,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5033,10 +5033,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -5055,10 +5055,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -5088,21 +5088,24 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5110,18 +5113,18 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -5129,18 +5132,21 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>87</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -5151,26 +5157,29 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>90</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5181,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -5192,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -5203,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -5214,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -5225,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -5236,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -5244,10 +5253,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -5255,10 +5264,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -5269,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -5280,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -5291,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -5299,10 +5308,13 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>107</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5310,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -5321,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -5332,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -5340,10 +5352,13 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -5351,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -5362,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -5373,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -5384,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -5395,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5406,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5414,10 +5429,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5428,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5439,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5450,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5461,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5469,10 +5484,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -5480,13 +5495,13 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5494,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -5505,18 +5520,18 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5524,13 +5539,13 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5538,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -5549,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -5557,10 +5572,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -5571,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5582,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -5593,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -5604,7 +5619,7 @@
         <v>-1</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -5615,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -5626,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -5634,10 +5649,13 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>157</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5645,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -5656,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -5667,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5675,10 +5693,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -5686,10 +5704,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5697,10 +5715,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5711,10 +5729,10 @@
         <v>-1</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5722,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5730,10 +5748,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5741,46 +5759,46 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5788,10 +5806,10 @@
         <v>-1</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5799,51 +5817,54 @@
         <v>-1</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5851,51 +5872,51 @@
         <v>-1</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5903,10 +5924,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -5914,10 +5935,13 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>34</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5925,32 +5949,32 @@
         <v>-1</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5958,21 +5982,21 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5980,7 +6004,7 @@
         <v>-1</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -5991,10 +6015,10 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -6002,7 +6026,10 @@
         <v>-1</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>95</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -6010,7 +6037,10 @@
         <v>-1</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -6018,7 +6048,10 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -6026,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -6037,7 +6070,10 @@
         <v>-1</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -6045,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -6056,10 +6092,10 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -6067,21 +6103,21 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -6089,23 +6125,29 @@
         <v>-1</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>162</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -6113,77 +6155,101 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>197</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>205</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>207</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>232</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>233</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>240</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>263</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>17</v>
+      </c>
+      <c r="C159">
+        <v>1.2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -6191,15 +6257,18 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>35</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -6207,7 +6276,7 @@
         <v>-1</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -6215,7 +6284,7 @@
         <v>-1</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -6223,7 +6292,7 @@
         <v>-1</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -6231,7 +6300,7 @@
         <v>-1</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -6239,7 +6308,7 @@
         <v>-1</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -6247,15 +6316,15 @@
         <v>-1</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -6263,7 +6332,7 @@
         <v>-1</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -6271,15 +6340,15 @@
         <v>-1</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -6287,7 +6356,7 @@
         <v>-1</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -6295,47 +6364,47 @@
         <v>-1</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -6343,7 +6412,7 @@
         <v>-1</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -6351,7 +6420,7 @@
         <v>-1</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -6359,7 +6428,7 @@
         <v>-1</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -6367,7 +6436,7 @@
         <v>-1</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -6375,7 +6444,7 @@
         <v>-1</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -6383,7 +6452,7 @@
         <v>-1</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -6391,7 +6460,7 @@
         <v>-1</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -6399,7 +6468,7 @@
         <v>-1</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -6407,7 +6476,7 @@
         <v>-1</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -6415,7 +6484,7 @@
         <v>-1</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -6423,7 +6492,7 @@
         <v>-1</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -6431,7 +6500,7 @@
         <v>-1</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -6439,7 +6508,7 @@
         <v>-1</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -6447,7 +6516,7 @@
         <v>-1</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -6455,7 +6524,7 @@
         <v>-1</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -6463,7 +6532,7 @@
         <v>-1</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -6471,7 +6540,7 @@
         <v>-1</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -6479,7 +6548,7 @@
         <v>-1</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -6487,7 +6556,7 @@
         <v>-1</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -6495,7 +6564,7 @@
         <v>-1</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -6503,7 +6572,7 @@
         <v>-1</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -6511,7 +6580,7 @@
         <v>-1</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -6519,7 +6588,7 @@
         <v>-1</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -6527,7 +6596,7 @@
         <v>-1</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -6535,7 +6604,7 @@
         <v>-1</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -6543,7 +6612,7 @@
         <v>-1</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -6551,7 +6620,7 @@
         <v>-1</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -6559,7 +6628,7 @@
         <v>-1</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -6567,7 +6636,7 @@
         <v>-1</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -6575,7 +6644,7 @@
         <v>-1</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -6583,7 +6652,7 @@
         <v>-1</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -6591,7 +6660,7 @@
         <v>-1</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -6599,7 +6668,7 @@
         <v>-1</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -6607,7 +6676,7 @@
         <v>-1</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -6615,7 +6684,7 @@
         <v>-1</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -6623,7 +6692,7 @@
         <v>-1</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -6631,7 +6700,7 @@
         <v>-1</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -6639,7 +6708,7 @@
         <v>-1</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -6647,7 +6716,7 @@
         <v>-1</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -6655,7 +6724,7 @@
         <v>-1</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -6663,7 +6732,7 @@
         <v>-1</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -6671,7 +6740,7 @@
         <v>-1</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -6679,7 +6748,7 @@
         <v>-1</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -6687,7 +6756,7 @@
         <v>-1</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -6695,7 +6764,7 @@
         <v>-1</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -6703,7 +6772,7 @@
         <v>-1</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -6711,7 +6780,7 @@
         <v>-1</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -6719,7 +6788,7 @@
         <v>-1</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -6727,7 +6796,7 @@
         <v>-1</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -6735,7 +6804,7 @@
         <v>-1</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -6743,7 +6812,7 @@
         <v>-1</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -6751,15 +6820,15 @@
         <v>-1</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -6767,7 +6836,7 @@
         <v>-1</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -6775,7 +6844,7 @@
         <v>-1</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -6783,7 +6852,7 @@
         <v>-1</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -6791,7 +6860,7 @@
         <v>-1</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -6799,7 +6868,7 @@
         <v>-1</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -6807,7 +6876,7 @@
         <v>-1</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -6815,7 +6884,7 @@
         <v>-1</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -6823,15 +6892,15 @@
         <v>-1</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -6839,7 +6908,7 @@
         <v>-1</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -6847,7 +6916,7 @@
         <v>-1</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -6855,7 +6924,7 @@
         <v>-1</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -6863,7 +6932,7 @@
         <v>-1</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -6871,7 +6940,7 @@
         <v>-1</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -6879,7 +6948,7 @@
         <v>-1</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -6887,7 +6956,7 @@
         <v>-1</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -6895,7 +6964,7 @@
         <v>-1</v>
       </c>
       <c r="B248" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -6903,7 +6972,7 @@
         <v>-1</v>
       </c>
       <c r="B249" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -6911,7 +6980,7 @@
         <v>-1</v>
       </c>
       <c r="B250" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -6919,7 +6988,7 @@
         <v>-1</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -6927,7 +6996,7 @@
         <v>-1</v>
       </c>
       <c r="B252" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -6935,7 +7004,7 @@
         <v>-1</v>
       </c>
       <c r="B253" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -6943,7 +7012,7 @@
         <v>-1</v>
       </c>
       <c r="B254" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -6951,7 +7020,7 @@
         <v>-1</v>
       </c>
       <c r="B255" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -6959,7 +7028,7 @@
         <v>-1</v>
       </c>
       <c r="B256" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -6967,15 +7036,15 @@
         <v>-1</v>
       </c>
       <c r="B257" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B258" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -6983,7 +7052,7 @@
         <v>-1</v>
       </c>
       <c r="B259" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -6991,7 +7060,7 @@
         <v>-1</v>
       </c>
       <c r="B260" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -6999,7 +7068,7 @@
         <v>-1</v>
       </c>
       <c r="B261" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -7007,7 +7076,7 @@
         <v>-1</v>
       </c>
       <c r="B262" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -7015,7 +7084,7 @@
         <v>-1</v>
       </c>
       <c r="B263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -7090,7 +7159,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>-1</v>
       </c>
@@ -7098,7 +7167,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>-1</v>
       </c>
@@ -7106,7 +7175,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>-1</v>
       </c>
@@ -7114,7 +7183,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>-1</v>
       </c>
@@ -7122,7 +7191,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>-1</v>
       </c>
@@ -7130,7 +7199,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>-1</v>
       </c>
@@ -7138,7 +7207,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
@@ -7146,7 +7215,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>-1</v>
       </c>
@@ -7154,7 +7223,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>-1</v>
       </c>
@@ -7162,7 +7231,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>-1</v>
       </c>
@@ -7170,7 +7239,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>-1</v>
       </c>
@@ -7178,15 +7247,18 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
       <c r="B284" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1</v>
       </c>
@@ -7194,7 +7266,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>-1</v>
       </c>
@@ -7202,7 +7274,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>-1</v>
       </c>
@@ -7210,7 +7282,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>-1</v>
       </c>
@@ -7346,15 +7418,18 @@
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>-1</v>
       </c>
       <c r="B305" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>-1</v>
       </c>
@@ -7362,7 +7437,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>-1</v>
       </c>
@@ -7370,7 +7445,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>-1</v>
       </c>
@@ -7378,15 +7453,18 @@
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>-1</v>
       </c>
       <c r="B309" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>-1</v>
       </c>
@@ -7394,7 +7472,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>-1</v>
       </c>
@@ -7402,7 +7480,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>-1</v>
       </c>
@@ -7410,7 +7488,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>-1</v>
       </c>
@@ -7418,7 +7496,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>-1</v>
       </c>
@@ -7426,7 +7504,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>-1</v>
       </c>
@@ -7434,7 +7512,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>-1</v>
       </c>
@@ -7442,7 +7520,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>-1</v>
       </c>
@@ -7450,7 +7528,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>-1</v>
       </c>
@@ -7458,7 +7536,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>-1</v>
       </c>
@@ -7466,15 +7544,18 @@
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>-1</v>
       </c>
       <c r="B320" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>-1</v>
       </c>
@@ -7482,15 +7563,18 @@
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>-1</v>
       </c>
       <c r="B322" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>-1</v>
       </c>
@@ -7498,7 +7582,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>-1</v>
       </c>
@@ -7506,7 +7590,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>-1</v>
       </c>
@@ -7514,7 +7598,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1</v>
       </c>
@@ -7522,7 +7606,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>-1</v>
       </c>
@@ -7530,7 +7614,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>-1</v>
       </c>
@@ -7538,7 +7622,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>-1</v>
       </c>
@@ -7546,7 +7630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>-1</v>
       </c>
@@ -7554,7 +7638,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>-1</v>
       </c>
@@ -7562,7 +7646,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1</v>
       </c>
@@ -7570,7 +7654,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>-1</v>
       </c>
@@ -7578,7 +7662,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>-1</v>
       </c>
@@ -7586,7 +7670,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>-1</v>
       </c>
@@ -7594,7 +7678,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -7730,7 +7814,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>-1</v>
       </c>
@@ -7738,7 +7822,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>-1</v>
       </c>
@@ -7746,15 +7830,18 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>-1</v>
       </c>
       <c r="B355" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>-1</v>
       </c>
@@ -7762,7 +7849,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>-1</v>
       </c>
@@ -7770,7 +7857,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>-1</v>
       </c>
@@ -7778,7 +7865,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>-1</v>
       </c>
@@ -7786,15 +7873,18 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1</v>
       </c>
       <c r="B360" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>-1</v>
       </c>
@@ -7802,15 +7892,18 @@
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1</v>
       </c>
       <c r="B362" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>-1</v>
       </c>
@@ -7818,7 +7911,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>-1</v>
       </c>
@@ -7826,15 +7919,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1</v>
       </c>
       <c r="B365" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>-1</v>
       </c>
@@ -7842,15 +7938,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1</v>
       </c>
       <c r="B367" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1</v>
       </c>
@@ -7858,15 +7957,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1</v>
       </c>
       <c r="B369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>-1</v>
       </c>
@@ -7874,7 +7976,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>-1</v>
       </c>
@@ -7882,7 +7984,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>-1</v>
       </c>
@@ -7890,15 +7992,18 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1</v>
       </c>
       <c r="B373" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1</v>
       </c>
@@ -7906,7 +8011,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1</v>
       </c>
@@ -7914,7 +8019,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>-1</v>
       </c>
@@ -7922,7 +8027,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>-1</v>
       </c>
@@ -7930,7 +8035,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>-1</v>
       </c>
@@ -7938,7 +8043,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1</v>
       </c>
@@ -7946,7 +8051,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>-1</v>
       </c>
@@ -7954,7 +8059,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>-1</v>
       </c>
@@ -7962,7 +8067,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1</v>
       </c>
@@ -7970,7 +8075,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>-1</v>
       </c>
@@ -7978,7 +8083,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>-1</v>
       </c>
@@ -7986,7 +8091,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>-1</v>
       </c>
@@ -7994,7 +8099,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1</v>
       </c>
@@ -8002,7 +8107,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>-1</v>
       </c>
@@ -8010,7 +8115,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>-1</v>
       </c>
@@ -8018,15 +8123,18 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
       <c r="B389" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -8034,7 +8142,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>-1</v>
       </c>
@@ -8042,15 +8150,18 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1</v>
       </c>
       <c r="B392" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1</v>
       </c>
@@ -8058,7 +8169,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>-1</v>
       </c>
@@ -8066,7 +8177,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>-1</v>
       </c>
@@ -8074,7 +8185,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>-1</v>
       </c>
@@ -8082,15 +8193,18 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1</v>
       </c>
       <c r="B397" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>-1</v>
       </c>
@@ -8098,7 +8212,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>-1</v>
       </c>
@@ -8106,7 +8220,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>-1</v>
       </c>
@@ -8242,7 +8356,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>-1</v>
       </c>
@@ -8250,7 +8364,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>-1</v>
       </c>
@@ -8258,7 +8372,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>-1</v>
       </c>
@@ -8266,7 +8380,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>-1</v>
       </c>
@@ -8274,7 +8388,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>-1</v>
       </c>
@@ -8282,7 +8396,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>-1</v>
       </c>
@@ -8290,7 +8404,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>-1</v>
       </c>
@@ -8298,7 +8412,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1</v>
       </c>
@@ -8306,7 +8420,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1</v>
       </c>
@@ -8314,7 +8428,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>-1</v>
       </c>
@@ -8322,7 +8436,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>-1</v>
       </c>
@@ -8330,7 +8444,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>-1</v>
       </c>
@@ -8338,7 +8452,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>-1</v>
       </c>
@@ -8346,7 +8460,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>-1</v>
       </c>
@@ -8354,7 +8468,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>-1</v>
       </c>
@@ -8362,15 +8476,18 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>-1</v>
       </c>
       <c r="B432" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>-1</v>
       </c>
@@ -8378,7 +8495,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1</v>
       </c>
@@ -8386,7 +8503,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>-1</v>
       </c>
@@ -8394,7 +8511,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>-1</v>
       </c>
@@ -8402,7 +8519,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>-1</v>
       </c>
@@ -8410,7 +8527,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>-1</v>
       </c>
@@ -8418,7 +8535,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>-1</v>
       </c>
@@ -8426,15 +8543,18 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>-1</v>
       </c>
       <c r="B440" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>-1</v>
       </c>
@@ -8442,7 +8562,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>-1</v>
       </c>
@@ -8450,7 +8570,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>-1</v>
       </c>
@@ -8458,7 +8578,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>-1</v>
       </c>
@@ -8466,7 +8586,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>-1</v>
       </c>
@@ -8474,7 +8594,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>-1</v>
       </c>
@@ -8482,7 +8602,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>-1</v>
       </c>
@@ -8490,7 +8610,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>-1</v>
       </c>
@@ -8498,7 +8618,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>-1</v>
       </c>
@@ -8506,7 +8626,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>-1</v>
       </c>
@@ -8514,7 +8634,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>-1</v>
       </c>
@@ -8522,7 +8642,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>-1</v>
       </c>
@@ -8530,7 +8650,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>-1</v>
       </c>
@@ -8538,7 +8658,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>-1</v>
       </c>
@@ -8546,7 +8666,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>-1</v>
       </c>
@@ -8554,7 +8674,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>-1</v>
       </c>
@@ -8562,7 +8682,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>-1</v>
       </c>
@@ -8570,7 +8690,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>-1</v>
       </c>
@@ -8578,15 +8698,18 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>-1</v>
       </c>
       <c r="B459" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>-1</v>
       </c>
@@ -8594,7 +8717,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>-1</v>
       </c>
@@ -8602,7 +8725,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>-1</v>
       </c>
@@ -8610,7 +8733,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>-1</v>
       </c>
@@ -8618,15 +8741,18 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>-1</v>
       </c>
       <c r="B464" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>-1</v>
       </c>
@@ -8634,7 +8760,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>-1</v>
       </c>
@@ -8642,7 +8768,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>-1</v>
       </c>
@@ -8650,15 +8776,18 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>-1</v>
       </c>
       <c r="B468" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>-1</v>
       </c>
@@ -8666,7 +8795,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>-1</v>
       </c>
@@ -8674,7 +8803,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>-1</v>
       </c>
@@ -8682,23 +8811,29 @@
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>-1</v>
       </c>
       <c r="B472" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>-1</v>
       </c>
       <c r="B473" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>-1</v>
       </c>
@@ -8706,15 +8841,18 @@
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1</v>
       </c>
       <c r="B475" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>-1</v>
       </c>
@@ -8722,7 +8860,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>-1</v>
       </c>
@@ -8730,7 +8868,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>-1</v>
       </c>
@@ -8738,7 +8876,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>-1</v>
       </c>
@@ -8746,7 +8884,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>-1</v>
       </c>
@@ -8754,7 +8892,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>-1</v>
       </c>
@@ -8762,15 +8900,18 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>-1</v>
       </c>
       <c r="B482" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>1</v>
       </c>
@@ -8778,7 +8919,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>-1</v>
       </c>
@@ -8786,7 +8927,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>-1</v>
       </c>
@@ -8794,7 +8935,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>-1</v>
       </c>
@@ -8802,7 +8943,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>-1</v>
       </c>
@@ -8810,7 +8951,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>-1</v>
       </c>
@@ -8818,7 +8959,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>-1</v>
       </c>
@@ -8826,7 +8967,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>-1</v>
       </c>
@@ -8834,7 +8975,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>-1</v>
       </c>
@@ -8842,15 +8983,18 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>-1</v>
       </c>
       <c r="B492" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>-1</v>
       </c>
@@ -8858,7 +9002,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>-1</v>
       </c>
@@ -8866,7 +9010,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>-1</v>
       </c>
@@ -8874,7 +9018,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>-1</v>
       </c>
@@ -9010,7 +9154,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>-1</v>
       </c>
@@ -9018,7 +9162,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>-1</v>
       </c>
@@ -9026,7 +9170,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>-1</v>
       </c>
@@ -9034,7 +9178,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>-1</v>
       </c>
@@ -9042,7 +9186,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>-1</v>
       </c>
@@ -9050,7 +9194,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>-1</v>
       </c>
@@ -9058,7 +9202,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>-1</v>
       </c>
@@ -9066,7 +9210,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>-1</v>
       </c>
@@ -9074,7 +9218,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>-1</v>
       </c>
@@ -9082,7 +9226,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>-1</v>
       </c>
@@ -9090,7 +9234,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>-1</v>
       </c>
@@ -9098,15 +9242,18 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>-1</v>
       </c>
       <c r="B524" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>-1</v>
       </c>
@@ -9114,23 +9261,29 @@
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>1</v>
       </c>
       <c r="B526" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>-1</v>
       </c>
       <c r="B527" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>-1</v>
       </c>
@@ -9138,7 +9291,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>-1</v>
       </c>
@@ -9146,7 +9299,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>-1</v>
       </c>
@@ -9154,7 +9307,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>-1</v>
       </c>
@@ -9162,7 +9315,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>-1</v>
       </c>
@@ -9170,7 +9323,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>-1</v>
       </c>
@@ -9178,15 +9331,18 @@
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>1</v>
       </c>
       <c r="B534" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>-1</v>
       </c>
@@ -9194,7 +9350,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>-1</v>
       </c>
@@ -9202,15 +9358,18 @@
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>-1</v>
       </c>
       <c r="B537" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>-1</v>
       </c>
@@ -9218,15 +9377,18 @@
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>-1</v>
       </c>
       <c r="B539" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>-1</v>
       </c>
@@ -9234,7 +9396,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>-1</v>
       </c>
@@ -9242,7 +9404,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>-1</v>
       </c>
@@ -9250,7 +9412,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>-1</v>
       </c>
@@ -9258,7 +9420,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>-1</v>
       </c>
@@ -9266,7 +9428,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>-1</v>
       </c>
@@ -9274,15 +9436,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>-1</v>
       </c>
       <c r="B546" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>-1</v>
       </c>
@@ -9290,15 +9455,18 @@
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>-1</v>
       </c>
       <c r="B548" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>-1</v>
       </c>
@@ -9306,7 +9474,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>-1</v>
       </c>
@@ -9314,31 +9482,40 @@
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>-1</v>
       </c>
       <c r="B551" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>-1</v>
       </c>
       <c r="B552" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>-1</v>
       </c>
       <c r="B553" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>-1</v>
       </c>
@@ -9346,7 +9523,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>-1</v>
       </c>
@@ -9354,7 +9531,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>-1</v>
       </c>
@@ -9362,15 +9539,18 @@
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>-1</v>
       </c>
       <c r="B557" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>-1</v>
       </c>
@@ -9378,7 +9558,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>-1</v>
       </c>
@@ -9386,15 +9566,18 @@
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>-1</v>
       </c>
       <c r="B560" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>-1</v>
       </c>
@@ -9402,7 +9585,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>1</v>
       </c>
@@ -9410,15 +9593,18 @@
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>-1</v>
       </c>
       <c r="B563" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>-1</v>
       </c>
@@ -9426,15 +9612,18 @@
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>-1</v>
       </c>
       <c r="B565" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>-1</v>
       </c>
@@ -9442,7 +9631,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>-1</v>
       </c>
@@ -9450,7 +9639,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>-1</v>
       </c>
@@ -9458,15 +9647,18 @@
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>-1</v>
       </c>
       <c r="B569" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>-1</v>
       </c>
@@ -9474,7 +9666,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>-1</v>
       </c>
@@ -9482,7 +9674,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>-1</v>
       </c>
@@ -9490,7 +9682,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>-1</v>
       </c>
@@ -9498,7 +9690,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>-1</v>
       </c>
@@ -9506,7 +9698,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>-1</v>
       </c>
@@ -9514,7 +9706,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>-1</v>
       </c>
@@ -9522,7 +9714,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>-1</v>
       </c>
@@ -9530,7 +9722,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>-1</v>
       </c>
@@ -9538,7 +9730,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>-1</v>
       </c>
@@ -9546,7 +9738,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>-1</v>
       </c>
@@ -9554,7 +9746,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>-1</v>
       </c>
@@ -9562,7 +9754,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>-1</v>
       </c>
@@ -9570,7 +9762,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>-1</v>
       </c>
@@ -9578,7 +9770,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>-1</v>
       </c>
@@ -9586,23 +9778,29 @@
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>-1</v>
       </c>
       <c r="B585" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>-1</v>
       </c>
       <c r="B586" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>-1</v>
       </c>
@@ -9610,7 +9808,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>-1</v>
       </c>
@@ -9618,7 +9816,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>-1</v>
       </c>
@@ -9626,7 +9824,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>-1</v>
       </c>
@@ -9634,7 +9832,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>-1</v>
       </c>
@@ -9642,7 +9840,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>-1</v>
       </c>
@@ -9650,7 +9848,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>-1</v>
       </c>
@@ -9658,7 +9856,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>-1</v>
       </c>
@@ -9666,7 +9864,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>-1</v>
       </c>
@@ -9674,7 +9872,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>1</v>
       </c>
@@ -9682,7 +9880,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>-1</v>
       </c>
@@ -9690,7 +9888,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>-1</v>
       </c>
@@ -9698,23 +9896,29 @@
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>-1</v>
       </c>
       <c r="B599" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>-1</v>
       </c>
       <c r="B600" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>-1</v>
       </c>
@@ -9722,7 +9926,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>-1</v>
       </c>
@@ -9730,15 +9934,18 @@
         <v>600</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>-1</v>
       </c>
       <c r="B603" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>-1</v>
       </c>
@@ -9746,7 +9953,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>-1</v>
       </c>
@@ -9754,7 +9961,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>-1</v>
       </c>
@@ -9762,15 +9969,18 @@
         <v>604</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>-1</v>
       </c>
       <c r="B607" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>-1</v>
       </c>
@@ -9778,7 +9988,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>-1</v>
       </c>
@@ -9786,15 +9996,18 @@
         <v>607</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>-1</v>
       </c>
       <c r="B610" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>-1</v>
       </c>
@@ -9802,7 +10015,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>-1</v>
       </c>
@@ -9810,7 +10023,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>-1</v>
       </c>
@@ -9818,7 +10031,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>-1</v>
       </c>
@@ -9826,7 +10039,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>-1</v>
       </c>
@@ -9834,7 +10047,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>-1</v>
       </c>
@@ -9842,7 +10055,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>-1</v>
       </c>
@@ -9850,7 +10063,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>-1</v>
       </c>
@@ -9858,7 +10071,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>-1</v>
       </c>
@@ -9866,7 +10079,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>1</v>
       </c>
@@ -9874,7 +10087,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>-1</v>
       </c>
@@ -9882,7 +10095,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>-1</v>
       </c>
@@ -9890,7 +10103,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>-1</v>
       </c>
@@ -9898,7 +10111,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>-1</v>
       </c>
@@ -9906,15 +10119,18 @@
         <v>622</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>-1</v>
       </c>
       <c r="B625" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>-1</v>
       </c>
@@ -9922,15 +10138,18 @@
         <v>624</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>-1</v>
       </c>
       <c r="B627" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>-1</v>
       </c>
@@ -9938,7 +10157,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>1</v>
       </c>
@@ -9946,7 +10165,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>-1</v>
       </c>
@@ -9954,7 +10173,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>-1</v>
       </c>
@@ -9962,7 +10181,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>-1</v>
       </c>
@@ -9970,23 +10189,29 @@
         <v>630</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>-1</v>
       </c>
       <c r="B633" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>-1</v>
       </c>
       <c r="B634" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>-1</v>
       </c>
@@ -9994,23 +10219,29 @@
         <v>633</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>-1</v>
       </c>
       <c r="B636" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>-1</v>
       </c>
       <c r="B637" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>-1</v>
       </c>
@@ -10018,7 +10249,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>-1</v>
       </c>
@@ -10026,7 +10257,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>-1</v>
       </c>
@@ -10034,23 +10265,29 @@
         <v>638</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>-1</v>
       </c>
       <c r="B641" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>-1</v>
       </c>
       <c r="B642" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>1</v>
       </c>
@@ -10058,7 +10295,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>-1</v>
       </c>
@@ -10066,7 +10303,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>-1</v>
       </c>
@@ -10074,23 +10311,29 @@
         <v>643</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>-1</v>
       </c>
       <c r="B646" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>-1</v>
       </c>
       <c r="B647" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>-1</v>
       </c>
@@ -10098,7 +10341,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>1</v>
       </c>
@@ -10106,7 +10349,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>-1</v>
       </c>
@@ -10114,7 +10357,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>-1</v>
       </c>
@@ -10122,7 +10365,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>-1</v>
       </c>
@@ -10130,15 +10373,18 @@
         <v>650</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>-1</v>
       </c>
       <c r="B653" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>-1</v>
       </c>
@@ -10146,7 +10392,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>1</v>
       </c>
@@ -10154,7 +10400,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>-1</v>
       </c>
@@ -10162,7 +10408,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>-1</v>
       </c>
@@ -10170,31 +10416,40 @@
         <v>655</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>-1</v>
       </c>
       <c r="B658" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>-1</v>
       </c>
       <c r="B659" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>-1</v>
       </c>
       <c r="B660" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>-1</v>
       </c>
@@ -10202,7 +10457,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>-1</v>
       </c>
@@ -10210,7 +10465,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>-1</v>
       </c>
@@ -10218,7 +10473,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>-1</v>
       </c>
@@ -10226,15 +10481,18 @@
         <v>662</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>-1</v>
       </c>
       <c r="B665" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>-1</v>
       </c>
@@ -10242,7 +10500,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>-1</v>
       </c>
@@ -10250,7 +10508,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>-1</v>
       </c>
@@ -10258,7 +10516,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>-1</v>
       </c>
@@ -10266,7 +10524,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>-1</v>
       </c>
@@ -10274,7 +10532,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>-1</v>
       </c>
@@ -10282,7 +10540,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>-1</v>
       </c>
@@ -10290,15 +10548,18 @@
         <v>670</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>-1</v>
       </c>
       <c r="B673" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>-1</v>
       </c>
@@ -10306,7 +10567,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>-1</v>
       </c>
@@ -10314,7 +10575,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>-1</v>
       </c>
@@ -10322,7 +10583,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>-1</v>
       </c>
@@ -10330,7 +10591,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>-1</v>
       </c>
@@ -10338,7 +10599,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>-1</v>
       </c>
@@ -10346,7 +10607,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>-1</v>
       </c>
@@ -10354,15 +10615,18 @@
         <v>678</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>-1</v>
       </c>
       <c r="B681" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>-1</v>
       </c>
@@ -10370,23 +10634,29 @@
         <v>680</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>-1</v>
       </c>
       <c r="B683" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>-1</v>
       </c>
       <c r="B684" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>-1</v>
       </c>
@@ -10394,7 +10664,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>-1</v>
       </c>
@@ -10402,7 +10672,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>-1</v>
       </c>
@@ -10410,15 +10680,18 @@
         <v>685</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>-1</v>
       </c>
       <c r="B688" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>-1</v>
       </c>
@@ -10426,7 +10699,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>1</v>
       </c>
@@ -10434,7 +10707,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>-1</v>
       </c>
@@ -10442,15 +10715,18 @@
         <v>689</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>-1</v>
       </c>
       <c r="B692" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>-1</v>
       </c>
@@ -10458,23 +10734,29 @@
         <v>691</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>1</v>
       </c>
       <c r="B694" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>-1</v>
       </c>
       <c r="B695" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>-1</v>
       </c>
@@ -10482,7 +10764,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>-1</v>
       </c>
@@ -10490,7 +10772,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>-1</v>
       </c>
@@ -10498,15 +10780,18 @@
         <v>696</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>-1</v>
       </c>
       <c r="B699" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>-1</v>
       </c>
@@ -10514,7 +10799,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>-1</v>
       </c>
@@ -10522,7 +10807,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>-1</v>
       </c>
@@ -10530,7 +10815,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>-1</v>
       </c>
@@ -10538,23 +10823,29 @@
         <v>701</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>-1</v>
       </c>
       <c r="B704" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>-1</v>
       </c>
       <c r="B705" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>-1</v>
       </c>
@@ -10562,7 +10853,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>-1</v>
       </c>
@@ -10570,7 +10861,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>-1</v>
       </c>
@@ -10578,15 +10869,18 @@
         <v>706</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>-1</v>
       </c>
       <c r="B709" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>-1</v>
       </c>
@@ -10594,7 +10888,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>-1</v>
       </c>
@@ -10602,15 +10896,18 @@
         <v>709</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>-1</v>
       </c>
       <c r="B712" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>-1</v>
       </c>
@@ -10618,7 +10915,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>-1</v>
       </c>
@@ -10626,7 +10923,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>-1</v>
       </c>
@@ -10634,7 +10931,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>-1</v>
       </c>
@@ -10642,7 +10939,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>-1</v>
       </c>
@@ -10650,7 +10947,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>1</v>
       </c>
@@ -10658,7 +10955,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>1</v>
       </c>
@@ -10666,15 +10963,18 @@
         <v>717</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>-1</v>
       </c>
       <c r="B720" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>-1</v>
       </c>
@@ -10682,23 +10982,29 @@
         <v>719</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>1</v>
       </c>
       <c r="B722" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>-1</v>
       </c>
       <c r="B723" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>-1</v>
       </c>
@@ -10706,15 +11012,18 @@
         <v>722</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>-1</v>
       </c>
       <c r="B725" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>-1</v>
       </c>
@@ -10722,7 +11031,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>-1</v>
       </c>
@@ -10730,7 +11039,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>-1</v>
       </c>
@@ -10738,15 +11047,18 @@
         <v>726</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>-1</v>
       </c>
       <c r="B729" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>-1</v>
       </c>
@@ -10754,7 +11066,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>1</v>
       </c>
@@ -10762,15 +11074,18 @@
         <v>729</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>-1</v>
       </c>
       <c r="B732" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>-1</v>
       </c>
@@ -10778,7 +11093,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>-1</v>
       </c>
@@ -10786,7 +11101,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>-1</v>
       </c>
@@ -10794,7 +11109,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>-1</v>
       </c>
@@ -10802,7 +11117,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>-1</v>
       </c>
@@ -10810,7 +11125,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>-1</v>
       </c>
@@ -10818,31 +11133,40 @@
         <v>736</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>-1</v>
       </c>
       <c r="B739" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>-1</v>
       </c>
       <c r="B740" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>1</v>
       </c>
       <c r="B741" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>-1</v>
       </c>
@@ -10850,23 +11174,29 @@
         <v>740</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>1</v>
       </c>
       <c r="B743" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>-1</v>
       </c>
       <c r="B744" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>-1</v>
       </c>
@@ -10874,31 +11204,40 @@
         <v>743</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>1</v>
       </c>
       <c r="B746" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>-1</v>
       </c>
       <c r="B747" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>-1</v>
       </c>
       <c r="B748" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>-1</v>
       </c>
@@ -10906,31 +11245,40 @@
         <v>747</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>1</v>
       </c>
       <c r="B750" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>1</v>
       </c>
       <c r="B751" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>-1</v>
       </c>
       <c r="B752" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>-1</v>
       </c>
@@ -10938,7 +11286,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>-1</v>
       </c>
@@ -10946,23 +11294,29 @@
         <v>752</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>-1</v>
       </c>
       <c r="B755" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>-1</v>
       </c>
       <c r="B756" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>-1</v>
       </c>
@@ -10970,7 +11324,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>-1</v>
       </c>
@@ -10978,7 +11332,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>-1</v>
       </c>
@@ -10986,7 +11340,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>-1</v>
       </c>
@@ -10994,23 +11348,29 @@
         <v>758</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>1</v>
       </c>
       <c r="B761" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>-1</v>
       </c>
       <c r="B762" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>-1</v>
       </c>
@@ -11018,15 +11378,18 @@
         <v>761</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>-1</v>
       </c>
       <c r="B764" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>-1</v>
       </c>
@@ -11034,7 +11397,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>-1</v>
       </c>
@@ -11042,7 +11405,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>-1</v>
       </c>
@@ -11050,15 +11413,18 @@
         <v>765</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>-1</v>
       </c>
       <c r="B768" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>-1</v>
       </c>
@@ -11066,23 +11432,29 @@
         <v>767</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>1</v>
       </c>
       <c r="B770" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C770">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>1</v>
       </c>
       <c r="B771" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>-1</v>
       </c>
@@ -11090,7 +11462,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>-1</v>
       </c>
@@ -11098,7 +11470,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>-1</v>
       </c>
@@ -11106,23 +11478,29 @@
         <v>772</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>-1</v>
       </c>
       <c r="B775" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>-1</v>
       </c>
       <c r="B776" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>-1</v>
       </c>
@@ -11130,23 +11508,29 @@
         <v>775</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>-1</v>
       </c>
       <c r="B778" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>-1</v>
       </c>
       <c r="B779" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>-1</v>
       </c>
@@ -11154,7 +11538,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>1</v>
       </c>
@@ -11162,7 +11546,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>-1</v>
       </c>
@@ -11170,15 +11554,18 @@
         <v>780</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>-1</v>
       </c>
       <c r="B783" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>-1</v>
       </c>
@@ -11186,7 +11573,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>-1</v>
       </c>
@@ -11194,7 +11581,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>-1</v>
       </c>
@@ -11202,31 +11589,40 @@
         <v>784</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>-1</v>
       </c>
       <c r="B787" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>-1</v>
       </c>
       <c r="B788" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C788">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>-1</v>
       </c>
       <c r="B789" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>-1</v>
       </c>
@@ -11234,7 +11630,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>-1</v>
       </c>
@@ -11242,7 +11638,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>-1</v>
       </c>
@@ -11250,7 +11646,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>-1</v>
       </c>
@@ -11258,39 +11654,51 @@
         <v>791</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>-1</v>
       </c>
       <c r="B794" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>-1</v>
       </c>
       <c r="B795" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>-1</v>
       </c>
       <c r="B796" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>-1</v>
       </c>
       <c r="B797" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>-1</v>
       </c>
@@ -11298,21 +11706,27 @@
         <v>796</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>1</v>
       </c>
       <c r="B799" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>-1</v>
       </c>
       <c r="B800" t="s">
         <v>798</v>
       </c>
+      <c r="C800">
+        <v>0</v>
+      </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801">
@@ -12411,6 +12825,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H937">
+    <sortCondition ref="C2:C937"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
